--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409460.438109822</v>
+        <v>3405154.72173375</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>123.5492650282467</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>161.5519252761216</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>116.4814587683036</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>205.1478855987998</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>186.5444490527319</v>
+        <v>219.7861813696451</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>139.5297567177294</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>206.0181681025915</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>339.125755619756</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.6293373268353</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75.47056129231224</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>130.2353589709477</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>31.40247677523006</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624886</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>73.56194264363164</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.66636605273473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>139.511541534052</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>33.01627976944107</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.0109307051772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569545</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>38.19083539427249</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>111.306220275312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>37.40501058443086</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>1546.944160717209</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1546.944160717209</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1161.155908118965</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>750.1700033293573</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>332.2061952275442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>382.4813941485145</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.4813941485145</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.514859931282</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="C5" t="n">
-        <v>980.5523429908701</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="D5" t="n">
-        <v>980.5523429908701</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="E5" t="n">
-        <v>980.5523429908701</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="F5" t="n">
-        <v>569.5664382012626</v>
+        <v>275.9492256280868</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.514859931282</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146243</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>409.5384547146243</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>409.5384547146243</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146243</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.198452807675</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.198452807675</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1319.932754200924</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.165398244936</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.337784783486</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.198452807675</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>258.7803994994155</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>764.6264059403564</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>764.7254868573889</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>595.789303929482</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>445.6726645171462</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>445.6726645171462</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>298.7827170192359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>130.1758720146192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>764.7254868573889</v>
+        <v>922.3267956322873</v>
       </c>
       <c r="Y10" t="n">
-        <v>764.7254868573889</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,10 +5059,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703778</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>516.5309703533136</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,7 +5217,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5257,58 +5257,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1024.063349920563</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>855.1271669926557</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>705.0105275803199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>557.0974339979268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>410.2074865000164</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5837,19 +5837,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6074,22 +6074,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6129,16 +6129,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>209.2531439449482</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3233.200736907821</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C37" t="n">
-        <v>3064.264553979914</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D37" t="n">
-        <v>2914.147914567578</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.84920173806</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3414.84920173806</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2940.5785039035</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2771.642320975594</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2771.642320975594</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3343.01954787727</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3122.22696873374</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,25 +8534,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>329.6451212993295</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>115.0314858713391</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>73.85777223953411</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>6.922421112517128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>107.2784330767828</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.57372264691756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>108.2431272522967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>34.11482774761924</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.469330230033</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>109.0289520621383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>690954.1614566039</v>
+        <v>690954.161456604</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808068</v>
+        <v>771052.6913808066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682704</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682704</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682772</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682798</v>
+        <v>5677.536566682782</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631325</v>
+        <v>-143811.7798631326</v>
       </c>
       <c r="C6" t="n">
         <v>446156.099351412</v>
       </c>
       <c r="D6" t="n">
-        <v>290352.2932576174</v>
+        <v>290352.2932576177</v>
       </c>
       <c r="E6" t="n">
-        <v>-151420.8180503914</v>
+        <v>-151768.1973047479</v>
       </c>
       <c r="F6" t="n">
-        <v>619631.873330416</v>
+        <v>619284.4940760583</v>
       </c>
       <c r="G6" t="n">
-        <v>619631.8733304151</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="H6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760586</v>
       </c>
       <c r="I6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="J6" t="n">
-        <v>443208.6541378226</v>
+        <v>442861.2748834656</v>
       </c>
       <c r="K6" t="n">
-        <v>619631.8733304156</v>
+        <v>619284.4940760587</v>
       </c>
       <c r="L6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="M6" t="n">
-        <v>495423.3626223572</v>
+        <v>495075.9833680004</v>
       </c>
       <c r="N6" t="n">
-        <v>619631.8733304156</v>
+        <v>619284.4940760586</v>
       </c>
       <c r="O6" t="n">
-        <v>619631.8733304152</v>
+        <v>619284.4940760587</v>
       </c>
       <c r="P6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760585</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,37 +26968,37 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>200.3735077361105</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>54.89639508153618</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>135.6561845555244</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329496</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>227.239720968063</v>
+        <v>193.9979886511499</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>6.904205928839815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>80.50483023399946</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>43.60808604372454</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>251.1017633516337</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>77.24153537692031</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28067,7 +28067,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>95.47429641808947</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28812,13 +28812,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.448120634059955e-15</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283044</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,10 +32794,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32809,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>572.868299221487</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,37 +33262,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,37 +33499,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>512.9101366533187</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>302.967544750805</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,10 +34789,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>510.9555620615566</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.7309431539454</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36457,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>370.3138922088742</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>160.8335108287866</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>339.2956687594475</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3405154.72173375</v>
+        <v>3406915.252036536</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.921181219817627</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>161.5519252761216</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>132.9971948932742</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1478855987998</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>219.7861813696451</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10.50623107476266</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>206.0181681025915</v>
+        <v>216.7025476026978</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.125755619756</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>340.3596536242657</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>79.2860473850909</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>130.2353589709477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>31.40247677523006</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217091</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569545</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>111.306220275312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824217</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.208503927498</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.031016241668</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.965328113049</v>
+        <v>2300.39634921373</v>
       </c>
       <c r="U2" t="n">
-        <v>2280.203542751141</v>
+        <v>2046.634563851822</v>
       </c>
       <c r="V2" t="n">
-        <v>1949.14065540757</v>
+        <v>1715.571676508251</v>
       </c>
       <c r="W2" t="n">
-        <v>1596.372000137456</v>
+        <v>1715.571676508251</v>
       </c>
       <c r="X2" t="n">
-        <v>1222.906241876376</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1222.906241876376</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430002</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.9351304176944</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>686.9351304176944</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>686.9351304176944</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>686.9351304176944</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>275.9492256280868</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2686.53673639725</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545819</v>
+        <v>509.2375219814871</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1466.963178925554</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1466.963178925554</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1108.697480318803</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>722.9092277205591</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>715.9637269713556</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1857.102510901366</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1857.102510901366</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1466.963178925554</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>258.7803994994155</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>764.6264059403564</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>922.3267956322873</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>666.6476097656493</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5309703533136</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,34 +5257,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,19 +5980,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6074,16 +6074,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6542,7 +6542,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452619</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718135</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239595</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397181</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820876</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7496,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>329.6451212993295</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-8.144969615027459e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.0314858713391</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="17">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>34.11482774761924</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682719</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682772</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682782</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682809</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143811.7798631326</v>
+        <v>-143811.7798631325</v>
       </c>
       <c r="C6" t="n">
-        <v>446156.099351412</v>
+        <v>446156.0993514123</v>
       </c>
       <c r="D6" t="n">
         <v>290352.2932576177</v>
       </c>
       <c r="E6" t="n">
-        <v>-151768.1973047479</v>
+        <v>-151455.5559758262</v>
       </c>
       <c r="F6" t="n">
-        <v>619284.4940760583</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="G6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="H6" t="n">
-        <v>619284.4940760586</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="I6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="J6" t="n">
-        <v>442861.2748834656</v>
+        <v>443173.9162123868</v>
       </c>
       <c r="K6" t="n">
-        <v>619284.4940760587</v>
+        <v>619597.13540498</v>
       </c>
       <c r="L6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049796</v>
       </c>
       <c r="M6" t="n">
-        <v>495075.9833680004</v>
+        <v>495388.624696921</v>
       </c>
       <c r="N6" t="n">
-        <v>619284.4940760586</v>
+        <v>619597.1354049796</v>
       </c>
       <c r="O6" t="n">
-        <v>619284.4940760587</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="P6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049795</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>52.55722135499407</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>54.89639508153618</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.71246049576294</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.43676775329496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>193.9979886511499</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>43.97217150004904</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>80.50483023399946</v>
+        <v>69.82045073389318</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.60808604372454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>72.55725032167106</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,13 +27912,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.96077371353694</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>95.47429641808947</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32794,19 +32794,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33031,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>741.1502463817015</v>
       </c>
       <c r="O27" t="n">
-        <v>572.868299221487</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>361.1081696176607</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>512.9101366533187</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34216,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>510.9555620615566</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>609.8085342983683</v>
       </c>
       <c r="O27" t="n">
-        <v>430.2720547770426</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367786</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410458</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>222.5537898377865</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>370.3138922088742</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
